--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2203.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2203.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.016951357508223</v>
+        <v>0.9042177796363831</v>
       </c>
       <c r="B1">
-        <v>1.720055604684302</v>
+        <v>1.906989932060242</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>8.618441581726074</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.98227322101593</v>
       </c>
       <c r="E1">
-        <v>1.059115163308977</v>
+        <v>1.451583981513977</v>
       </c>
     </row>
   </sheetData>
